--- a/1.1 Data Visualization Molson and Brewery.xlsx
+++ b/1.1 Data Visualization Molson and Brewery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Semester 3/Strategy and Performance Management/SPM Project Harvard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{86850387-C610-473E-9356-8EF4DE386ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4FAD39A-8681-4207-87AD-2F168700A3F5}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="13_ncr:1_{86850387-C610-473E-9356-8EF4DE386ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E5419C-936F-43A2-85DA-C8D25ADF5338}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cum. Brewery 0%" sheetId="9" r:id="rId1"/>
@@ -6094,7 +6094,7 @@
             <c:numRef>
               <c:f>'2019 Rankings on Sales'!$C$60:$C$69</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>#,#00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.1239129617346494E-4</c:v>
@@ -6220,7 +6220,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6844,7 +6844,7 @@
             <c:numRef>
               <c:f>'2019 Rankings on Sales'!$C$88:$C$97</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>#,#00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5593663186865524E-4</c:v>
@@ -6970,7 +6970,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -25445,71 +25445,71 @@
       </c>
       <c r="I97" s="12"/>
       <c r="J97" s="12">
-        <f>(SUM(J2:J96))</f>
+        <f t="shared" ref="J97:Z97" si="2">(SUM(J2:J96))</f>
         <v>-16724046851.713978</v>
       </c>
       <c r="K97" s="12">
-        <f>(SUM(K2:K96))</f>
+        <f t="shared" si="2"/>
         <v>-10478818348.297966</v>
       </c>
       <c r="L97" s="12">
-        <f>(SUM(L2:L96))</f>
+        <f t="shared" si="2"/>
         <v>-10468636054.102352</v>
       </c>
       <c r="M97" s="12">
-        <f>(SUM(M2:M96))</f>
+        <f t="shared" si="2"/>
         <v>-124998143.96692027</v>
       </c>
       <c r="N97" s="12">
-        <f>(SUM(N2:N96))</f>
+        <f t="shared" si="2"/>
         <v>-125026494.73322256</v>
       </c>
       <c r="O97" s="12">
-        <f>(SUM(O2:O96))</f>
+        <f t="shared" si="2"/>
         <v>-1699847168.8520746</v>
       </c>
       <c r="P97" s="12">
-        <f>(SUM(P2:P96))</f>
+        <f t="shared" si="2"/>
         <v>1346936647.1534202</v>
       </c>
       <c r="Q97" s="12">
-        <f>(SUM(Q2:Q96))</f>
+        <f t="shared" si="2"/>
         <v>-1226511.3249630805</v>
       </c>
       <c r="R97" s="12">
-        <f>(SUM(R2:R96))</f>
+        <f t="shared" si="2"/>
         <v>-7457787538.3058586</v>
       </c>
       <c r="S97" s="12">
-        <f>(SUM(S2:S96))</f>
+        <f t="shared" si="2"/>
         <v>-12290489.343701761</v>
       </c>
       <c r="T97" s="12">
-        <f>(SUM(T2:T96))</f>
+        <f t="shared" si="2"/>
         <v>-103492.14337628089</v>
       </c>
       <c r="U97" s="12">
-        <f>(SUM(U2:U96))</f>
+        <f t="shared" si="2"/>
         <v>-21948.814070896315</v>
       </c>
       <c r="V97" s="12">
-        <f>(SUM(V2:V96))</f>
+        <f t="shared" si="2"/>
         <v>-4750571.9687265446</v>
       </c>
       <c r="W97" s="12">
-        <f>(SUM(W2:W96))</f>
+        <f t="shared" si="2"/>
         <v>-123355.34478203175</v>
       </c>
       <c r="X97" s="12">
-        <f>(SUM(X2:X96))</f>
+        <f t="shared" si="2"/>
         <v>1382828.5170562784</v>
       </c>
       <c r="Y97" s="12">
-        <f>(SUM(Y2:Y96))</f>
+        <f t="shared" si="2"/>
         <v>1104699.8920492569</v>
       </c>
       <c r="Z97" s="12">
-        <f>(SUM(Z2:Z96))</f>
+        <f t="shared" si="2"/>
         <v>-1566867.8696097066</v>
       </c>
       <c r="AA97" s="12">
@@ -25581,67 +25581,67 @@
         <v>1.0784274235583067E-2</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:Z99" si="2">K97/$H$97*-1</f>
+        <f t="shared" ref="K99:Z99" si="3">K97/$H$97*-1</f>
         <v>6.7571235440137085E-3</v>
       </c>
       <c r="L99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7505576300380711E-3</v>
       </c>
       <c r="M99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0603353687687672E-5</v>
       </c>
       <c r="N99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0621635293886439E-5</v>
       </c>
       <c r="O99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0961233360573561E-3</v>
       </c>
       <c r="P99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.6855378423976296E-4</v>
       </c>
       <c r="Q99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9089915250354702E-7</v>
       </c>
       <c r="R99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8090528995116824E-3</v>
       </c>
       <c r="S99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9253549542889054E-6</v>
       </c>
       <c r="T99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6735501598030472E-8</v>
       </c>
       <c r="U99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4153394341998725E-8</v>
       </c>
       <c r="V99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0633417462215673E-6</v>
       </c>
       <c r="W99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9544016968476408E-8</v>
       </c>
       <c r="X99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.9169816856804676E-7</v>
       </c>
       <c r="Y99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.1235070611257244E-7</v>
       </c>
       <c r="Z99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0103734429004622E-6</v>
       </c>
       <c r="AA99" s="11"/>
@@ -26900,8 +26900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8AC204-644A-48B7-ACD5-1553ABE6221E}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28482,7 +28482,7 @@
         <v>-8.1755011631987925E-7</v>
       </c>
       <c r="Z21" s="13">
-        <f t="shared" si="4"/>
+        <f>(Z18/$H$18)*-1</f>
         <v>-5.2760046409574884E-7</v>
       </c>
       <c r="AA21" s="13">
@@ -28702,8 +28702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A162EC94-E443-4046-97DC-6A4536B1DA8A}">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41357,7 +41357,7 @@
         <v>-0.46521553924857717</v>
       </c>
       <c r="H2" s="16">
-        <f>I2/F2</f>
+        <f t="shared" ref="H2:H33" si="0">I2/F2</f>
         <v>2709239494.2463551</v>
       </c>
       <c r="I2" s="1">
@@ -41441,7 +41441,7 @@
         <v>-0.17836740048832231</v>
       </c>
       <c r="H3" s="16">
-        <f>I3/F3</f>
+        <f t="shared" si="0"/>
         <v>27497155320</v>
       </c>
       <c r="I3" s="1">
@@ -41525,7 +41525,7 @@
         <v>-0.20445526172640716</v>
       </c>
       <c r="H4" s="16">
-        <f>I4/F4</f>
+        <f t="shared" si="0"/>
         <v>18366379968.00996</v>
       </c>
       <c r="I4" s="1">
@@ -41609,7 +41609,7 @@
         <v>-0.14921488827512666</v>
       </c>
       <c r="H5" s="16">
-        <f>I5/F5</f>
+        <f t="shared" si="0"/>
         <v>10814001147.152143</v>
       </c>
       <c r="I5" s="1">
@@ -41693,7 +41693,7 @@
         <v>-0.23503948831942156</v>
       </c>
       <c r="H6" s="16">
-        <f>I6/F6</f>
+        <f t="shared" si="0"/>
         <v>21647527202.927853</v>
       </c>
       <c r="I6" s="1">
@@ -41777,7 +41777,7 @@
         <v>-0.20743185208286014</v>
       </c>
       <c r="H7" s="16">
-        <f>I7/F7</f>
+        <f t="shared" si="0"/>
         <v>21647527202.927853</v>
       </c>
       <c r="I7" s="1">
@@ -41861,7 +41861,7 @@
         <v>-0.28311452523902003</v>
       </c>
       <c r="H8" s="16">
-        <f>I8/F8</f>
+        <f t="shared" si="0"/>
         <v>26854255251.629471</v>
       </c>
       <c r="I8" s="1">
@@ -41945,7 +41945,7 @@
         <v>-0.34185540427309841</v>
       </c>
       <c r="H9" s="16">
-        <f>I9/F9</f>
+        <f t="shared" si="0"/>
         <v>3254400000</v>
       </c>
       <c r="I9" s="1">
@@ -42029,7 +42029,7 @@
         <v>-0.2981923448462</v>
       </c>
       <c r="H10" s="16">
-        <f>I10/F10</f>
+        <f t="shared" si="0"/>
         <v>4799728226.5170383</v>
       </c>
       <c r="I10" s="1">
@@ -42113,7 +42113,7 @@
         <v>-0.67954351485214193</v>
       </c>
       <c r="H11" s="16">
-        <f>I11/F11</f>
+        <f t="shared" si="0"/>
         <v>2521290558.3667955</v>
       </c>
       <c r="I11" s="1">
@@ -42197,7 +42197,7 @@
         <v>-0.16585625900244935</v>
       </c>
       <c r="H12" s="16">
-        <f>I12/F12</f>
+        <f t="shared" si="0"/>
         <v>27936633745.15313</v>
       </c>
       <c r="I12" s="1">
@@ -42281,7 +42281,7 @@
         <v>-0.17111593444431494</v>
       </c>
       <c r="H13" s="16">
-        <f>I13/F13</f>
+        <f t="shared" si="0"/>
         <v>19014158388.663769</v>
       </c>
       <c r="I13" s="1">
@@ -42365,7 +42365,7 @@
         <v>-0.1859973045224087</v>
       </c>
       <c r="H14" s="16">
-        <f>I14/F14</f>
+        <f t="shared" si="0"/>
         <v>11101388317.918749</v>
       </c>
       <c r="I14" s="1">
@@ -42449,7 +42449,7 @@
         <v>-0.17677685605241586</v>
       </c>
       <c r="H15" s="16">
-        <f>I15/F15</f>
+        <f t="shared" si="0"/>
         <v>22229434261.599144</v>
       </c>
       <c r="I15" s="1">
@@ -42533,7 +42533,7 @@
         <v>-0.17977073989751233</v>
       </c>
       <c r="H16" s="16">
-        <f>I16/F16</f>
+        <f t="shared" si="0"/>
         <v>22229434261.599144</v>
       </c>
       <c r="I16" s="1">
@@ -42617,7 +42617,7 @@
         <v>-0.19178349186202245</v>
       </c>
       <c r="H17" s="16">
-        <f>I17/F17</f>
+        <f t="shared" si="0"/>
         <v>26931065470.129601</v>
       </c>
       <c r="I17" s="1">
@@ -42701,7 +42701,7 @@
         <v>-0.2956452368293977</v>
       </c>
       <c r="H18" s="16">
-        <f>I18/F18</f>
+        <f t="shared" si="0"/>
         <v>3515700209.552062</v>
       </c>
       <c r="I18" s="1">
@@ -42785,7 +42785,7 @@
         <v>-0.25633598858771872</v>
       </c>
       <c r="H19" s="16">
-        <f>I19/F19</f>
+        <f t="shared" si="0"/>
         <v>5902849393.2834282</v>
       </c>
       <c r="I19" s="1">
@@ -42869,7 +42869,7 @@
         <v>-0.47956035091431576</v>
       </c>
       <c r="H20" s="16">
-        <f>I20/F20</f>
+        <f t="shared" si="0"/>
         <v>3595339111.9948826</v>
       </c>
       <c r="I20" s="1">
@@ -42953,7 +42953,7 @@
         <v>-0.14235484011942057</v>
       </c>
       <c r="H21" s="16">
-        <f>I21/F21</f>
+        <f t="shared" si="0"/>
         <v>30803305659.999996</v>
       </c>
       <c r="I21" s="1">
@@ -43037,7 +43037,7 @@
         <v>-0.21007653848278765</v>
       </c>
       <c r="H22" s="16">
-        <f>I22/F22</f>
+        <f t="shared" si="0"/>
         <v>18261046015.535233</v>
       </c>
       <c r="I22" s="1">
@@ -43121,7 +43121,7 @@
         <v>-0.17892835803132082</v>
       </c>
       <c r="H23" s="16">
-        <f>I23/F23</f>
+        <f t="shared" si="0"/>
         <v>11872493413.381487</v>
       </c>
       <c r="I23" s="1">
@@ -43205,7 +43205,7 @@
         <v>-0.19566297600274188</v>
       </c>
       <c r="H24" s="16">
-        <f>I24/F24</f>
+        <f t="shared" si="0"/>
         <v>24234305443.077244</v>
       </c>
       <c r="I24" s="1">
@@ -43289,7 +43289,7 @@
         <v>-0.15845281528504329</v>
       </c>
       <c r="H25" s="16">
-        <f>I25/F25</f>
+        <f t="shared" si="0"/>
         <v>24234305443.077244</v>
       </c>
       <c r="I25" s="1">
@@ -43373,7 +43373,7 @@
         <v>-0.21610525335456474</v>
       </c>
       <c r="H26" s="16">
-        <f>I26/F26</f>
+        <f t="shared" si="0"/>
         <v>25281796946.508446</v>
       </c>
       <c r="I26" s="1">
@@ -43457,7 +43457,7 @@
         <v>-0.28896288511145363</v>
       </c>
       <c r="H27" s="16">
-        <f>I27/F27</f>
+        <f t="shared" si="0"/>
         <v>3916499999.9999995</v>
       </c>
       <c r="I27" s="1">
@@ -43541,7 +43541,7 @@
         <v>-7.3612886271590697E-2</v>
       </c>
       <c r="H28" s="16">
-        <f>I28/F28</f>
+        <f t="shared" si="0"/>
         <v>14726788466.448458</v>
       </c>
       <c r="I28" s="1">
@@ -43625,7 +43625,7 @@
         <v>-0.72614319087049473</v>
       </c>
       <c r="H29" s="16">
-        <f>I29/F29</f>
+        <f t="shared" si="0"/>
         <v>4278341333.0558748</v>
       </c>
       <c r="I29" s="1">
@@ -43709,7 +43709,7 @@
         <v>-0.17387191301538557</v>
       </c>
       <c r="H30" s="16">
-        <f>I30/F30</f>
+        <f t="shared" si="0"/>
         <v>32478320500</v>
       </c>
       <c r="I30" s="1">
@@ -43793,7 +43793,7 @@
         <v>-0.25328352668344334</v>
       </c>
       <c r="H31" s="16">
-        <f>I31/F31</f>
+        <f t="shared" si="0"/>
         <v>16311621240.838671</v>
       </c>
       <c r="I31" s="1">
@@ -43877,7 +43877,7 @@
         <v>-0.15681011748644069</v>
       </c>
       <c r="H32" s="16">
-        <f>I32/F32</f>
+        <f t="shared" si="0"/>
         <v>12293489649.379696</v>
       </c>
       <c r="I32" s="1">
@@ -43961,7 +43961,7 @@
         <v>-0.17173393628531855</v>
       </c>
       <c r="H33" s="16">
-        <f>I33/F33</f>
+        <f t="shared" si="0"/>
         <v>26463646538.145359</v>
       </c>
       <c r="I33" s="1">
@@ -44045,7 +44045,7 @@
         <v>-0.16583319596068377</v>
       </c>
       <c r="H34" s="16">
-        <f>I34/F34</f>
+        <f t="shared" ref="H34:H65" si="1">I34/F34</f>
         <v>26463646538.145359</v>
       </c>
       <c r="I34" s="1">
@@ -44129,7 +44129,7 @@
         <v>-0.2679904864754617</v>
       </c>
       <c r="H35" s="16">
-        <f>I35/F35</f>
+        <f t="shared" si="1"/>
         <v>21453239298.461212</v>
       </c>
       <c r="I35" s="1">
@@ -44213,7 +44213,7 @@
         <v>-0.35644519149475767</v>
       </c>
       <c r="H36" s="16">
-        <f>I36/F36</f>
+        <f t="shared" si="1"/>
         <v>4206100000</v>
       </c>
       <c r="I36" s="1">
@@ -44297,7 +44297,7 @@
         <v>-0.662316599308443</v>
       </c>
       <c r="H37" s="16">
-        <f>I37/F37</f>
+        <f t="shared" si="1"/>
         <v>4851265667.2920618</v>
       </c>
       <c r="I37" s="1">
@@ -44381,7 +44381,7 @@
         <v>-6.8712831569435306E-2</v>
       </c>
       <c r="H38" s="16">
-        <f>I38/F38</f>
+        <f t="shared" si="1"/>
         <v>14336578285.399145</v>
       </c>
       <c r="I38" s="1">
@@ -44465,7 +44465,7 @@
         <v>-0.18783108601502316</v>
       </c>
       <c r="H39" s="16">
-        <f>I39/F39</f>
+        <f t="shared" si="1"/>
         <v>35642692420</v>
       </c>
       <c r="I39" s="1">
@@ -44549,7 +44549,7 @@
         <v>-0.1867720477614748</v>
       </c>
       <c r="H40" s="16">
-        <f>I40/F40</f>
+        <f t="shared" si="1"/>
         <v>14890207336.055519</v>
       </c>
       <c r="I40" s="1">
@@ -44633,7 +44633,7 @@
         <v>-0.21735164350942676</v>
       </c>
       <c r="H41" s="16">
-        <f>I41/F41</f>
+        <f t="shared" si="1"/>
         <v>10482981049.577593</v>
       </c>
       <c r="I41" s="1">
@@ -44717,7 +44717,7 @@
         <v>-0.16377315313612209</v>
       </c>
       <c r="H42" s="16">
-        <f>I42/F42</f>
+        <f t="shared" si="1"/>
         <v>23305990357.137371</v>
       </c>
       <c r="I42" s="1">
@@ -44801,7 +44801,7 @@
         <v>-0.15784036178740229</v>
       </c>
       <c r="H43" s="16">
-        <f>I43/F43</f>
+        <f t="shared" si="1"/>
         <v>23305990357.137371</v>
       </c>
       <c r="I43" s="1">
@@ -44885,7 +44885,7 @@
         <v>-0.37378999653659961</v>
       </c>
       <c r="H44" s="16">
-        <f>I44/F44</f>
+        <f t="shared" si="1"/>
         <v>18312095034.200382</v>
       </c>
       <c r="I44" s="1">
@@ -44969,7 +44969,7 @@
         <v>-0.31446673065045816</v>
       </c>
       <c r="H45" s="16">
-        <f>I45/F45</f>
+        <f t="shared" si="1"/>
         <v>4146300000</v>
       </c>
       <c r="I45" s="1">
@@ -45053,7 +45053,7 @@
         <v>-0.71529047540305368</v>
       </c>
       <c r="H46" s="16">
-        <f>I46/F46</f>
+        <f t="shared" si="1"/>
         <v>4326094274.7574825</v>
       </c>
       <c r="I46" s="1">
@@ -45137,7 +45137,7 @@
         <v>-5.7861551053658061E-2</v>
       </c>
       <c r="H47" s="16">
-        <f>I47/F47</f>
+        <f t="shared" si="1"/>
         <v>11793651280.325525</v>
       </c>
       <c r="I47" s="1">
@@ -45221,7 +45221,7 @@
         <v>-0.14832439246571907</v>
       </c>
       <c r="H48" s="16">
-        <f>I48/F48</f>
+        <f t="shared" si="1"/>
         <v>39534002640</v>
       </c>
       <c r="I48" s="1">
@@ -45305,7 +45305,7 @@
         <v>-0.1821420793732946</v>
       </c>
       <c r="H49" s="16">
-        <f>I49/F49</f>
+        <f t="shared" si="1"/>
         <v>15443985183.751049</v>
       </c>
       <c r="I49" s="1">
@@ -45389,7 +45389,7 @@
         <v>-0.24845811173487367</v>
       </c>
       <c r="H50" s="16">
-        <f>I50/F50</f>
+        <f t="shared" si="1"/>
         <v>9513311599.84935</v>
       </c>
       <c r="I50" s="1">
@@ -45473,7 +45473,7 @@
         <v>-0.35691971225360963</v>
       </c>
       <c r="H51" s="16">
-        <f>I51/F51</f>
+        <f t="shared" si="1"/>
         <v>2114844861.6000419</v>
       </c>
       <c r="I51" s="1">
@@ -45557,7 +45557,7 @@
         <v>-0.14696181199690614</v>
       </c>
       <c r="H52" s="16">
-        <f>I52/F52</f>
+        <f t="shared" si="1"/>
         <v>22277807787.04818</v>
       </c>
       <c r="I52" s="1">
@@ -45641,7 +45641,7 @@
         <v>-0.14594938472064029</v>
       </c>
       <c r="H53" s="16">
-        <f>I53/F53</f>
+        <f t="shared" si="1"/>
         <v>22277807787.04818</v>
       </c>
       <c r="I53" s="1">
@@ -45725,7 +45725,7 @@
         <v>-0.35248690146566614</v>
       </c>
       <c r="H54" s="16">
-        <f>I54/F54</f>
+        <f t="shared" si="1"/>
         <v>18266904460.822643</v>
       </c>
       <c r="I54" s="1">
@@ -45809,7 +45809,7 @@
         <v>-0.36048861205612959</v>
       </c>
       <c r="H55" s="16">
-        <f>I55/F55</f>
+        <f t="shared" si="1"/>
         <v>3567500000</v>
       </c>
       <c r="I55" s="1">
@@ -45893,7 +45893,7 @@
         <v>-0.7156400567195238</v>
       </c>
       <c r="H56" s="16">
-        <f>I56/F56</f>
+        <f t="shared" si="1"/>
         <v>4437986604.984314</v>
       </c>
       <c r="I56" s="1">
@@ -45977,7 +45977,7 @@
         <v>-0.13435438858995555</v>
       </c>
       <c r="H57" s="16">
-        <f>I57/F57</f>
+        <f t="shared" si="1"/>
         <v>41239312340</v>
       </c>
       <c r="I57" s="1">
@@ -46061,7 +46061,7 @@
         <v>-0.17139588491464391</v>
       </c>
       <c r="H58" s="16">
-        <f>I58/F58</f>
+        <f t="shared" si="1"/>
         <v>14632263460.487246</v>
       </c>
       <c r="I58" s="1">
@@ -46145,7 +46145,7 @@
         <v>-0.26122479828475698</v>
       </c>
       <c r="H59" s="16">
-        <f>I59/F59</f>
+        <f t="shared" si="1"/>
         <v>8882952071.3493214</v>
       </c>
       <c r="I59" s="1">
@@ -46229,7 +46229,7 @@
         <v>-4.3849220302803573</v>
       </c>
       <c r="H60" s="16">
-        <f>I60/F60</f>
+        <f t="shared" si="1"/>
         <v>4820447352.5491858</v>
       </c>
       <c r="I60" s="1">
@@ -46313,7 +46313,7 @@
         <v>-0.38320701772502952</v>
       </c>
       <c r="H61" s="16">
-        <f>I61/F61</f>
+        <f t="shared" si="1"/>
         <v>2327104547.7542434</v>
       </c>
       <c r="I61" s="1">
@@ -46397,7 +46397,7 @@
         <v>-0.16348854915386754</v>
       </c>
       <c r="H62" s="16">
-        <f>I62/F62</f>
+        <f t="shared" si="1"/>
         <v>21940404605.730537</v>
       </c>
       <c r="I62" s="1">
@@ -46481,7 +46481,7 @@
         <v>-0.16287767146622545</v>
       </c>
       <c r="H63" s="16">
-        <f>I63/F63</f>
+        <f t="shared" si="1"/>
         <v>21940404605.730537</v>
       </c>
       <c r="I63" s="1">
@@ -46565,7 +46565,7 @@
         <v>-0.29767490155238724</v>
       </c>
       <c r="H64" s="16">
-        <f>I64/F64</f>
+        <f t="shared" si="1"/>
         <v>17788360859.21402</v>
       </c>
       <c r="I64" s="1">
@@ -46649,7 +46649,7 @@
         <v>-0.23947160330750605</v>
       </c>
       <c r="H65" s="16">
-        <f>I65/F65</f>
+        <f t="shared" si="1"/>
         <v>4885000000</v>
       </c>
       <c r="I65" s="1">
@@ -46733,7 +46733,7 @@
         <v>-0.46947483510540328</v>
       </c>
       <c r="H66" s="16">
-        <f>I66/F66</f>
+        <f t="shared" ref="H66:H97" si="2">I66/F66</f>
         <v>4644937263.071867</v>
       </c>
       <c r="I66" s="1">
@@ -46817,7 +46817,7 @@
         <v>-0.13539659686530425</v>
       </c>
       <c r="H67" s="16">
-        <f>I67/F67</f>
+        <f t="shared" si="2"/>
         <v>49549929840</v>
       </c>
       <c r="I67" s="1">
@@ -46901,7 +46901,7 @@
         <v>-0.12484961272957963</v>
       </c>
       <c r="H68" s="16">
-        <f>I68/F68</f>
+        <f t="shared" si="2"/>
         <v>18509905998.838207</v>
       </c>
       <c r="I68" s="1">
@@ -46985,7 +46985,7 @@
         <v>-0.19130248291804325</v>
       </c>
       <c r="H69" s="16">
-        <f>I69/F69</f>
+        <f t="shared" si="2"/>
         <v>9969008796.7788658</v>
       </c>
       <c r="I69" s="1">
@@ -47069,7 +47069,7 @@
         <v>-2.3355838976851353</v>
       </c>
       <c r="H70" s="16">
-        <f>I70/F70</f>
+        <f t="shared" si="2"/>
         <v>5288591752.4326906</v>
       </c>
       <c r="I70" s="1">
@@ -47153,7 +47153,7 @@
         <v>-0.39543843293246084</v>
       </c>
       <c r="H71" s="16">
-        <f>I71/F71</f>
+        <f t="shared" si="2"/>
         <v>2761551578.0202436</v>
       </c>
       <c r="I71" s="1">
@@ -47237,7 +47237,7 @@
         <v>-0.12717741321257395</v>
       </c>
       <c r="H72" s="16">
-        <f>I72/F72</f>
+        <f t="shared" si="2"/>
         <v>26308657026.333191</v>
       </c>
       <c r="I72" s="1">
@@ -47321,7 +47321,7 @@
         <v>-0.12581869303390811</v>
       </c>
       <c r="H73" s="16">
-        <f>I73/F73</f>
+        <f t="shared" si="2"/>
         <v>26284639629.01136</v>
       </c>
       <c r="I73" s="1">
@@ -47405,7 +47405,7 @@
         <v>-0.19583730532205129</v>
       </c>
       <c r="H74" s="16">
-        <f>I74/F74</f>
+        <f t="shared" si="2"/>
         <v>16546523899.114782</v>
       </c>
       <c r="I74" s="1">
@@ -47489,7 +47489,7 @@
         <v>-0.27921920299155878</v>
       </c>
       <c r="H75" s="16">
-        <f>I75/F75</f>
+        <f t="shared" si="2"/>
         <v>11002800000</v>
       </c>
       <c r="I75" s="1">
@@ -47573,7 +47573,7 @@
         <v>-0.49870674303650442</v>
       </c>
       <c r="H76" s="16">
-        <f>I76/F76</f>
+        <f t="shared" si="2"/>
         <v>4896740495.4091854</v>
       </c>
       <c r="I76" s="1">
@@ -47657,7 +47657,7 @@
         <v>-0.13517632933192805</v>
       </c>
       <c r="H77" s="16">
-        <f>I77/F77</f>
+        <f t="shared" si="2"/>
         <v>46355691490</v>
       </c>
       <c r="I77" s="1">
@@ -47741,7 +47741,7 @@
         <v>-0.15269944202818625</v>
       </c>
       <c r="H78" s="16">
-        <f>I78/F78</f>
+        <f t="shared" si="2"/>
         <v>19325171039.347206</v>
       </c>
       <c r="I78" s="1">
@@ -47825,7 +47825,7 @@
         <v>-0.19196042955716297</v>
       </c>
       <c r="H79" s="16">
-        <f>I79/F79</f>
+        <f t="shared" si="2"/>
         <v>9586395993.6709061</v>
       </c>
       <c r="I79" s="1">
@@ -47909,7 +47909,7 @@
         <v>-2.1162425063800314</v>
       </c>
       <c r="H80" s="16">
-        <f>I80/F80</f>
+        <f t="shared" si="2"/>
         <v>5484934866.7685051</v>
       </c>
       <c r="I80" s="1">
@@ -47993,7 +47993,7 @@
         <v>-0.44965366500092052</v>
       </c>
       <c r="H81" s="16">
-        <f>I81/F81</f>
+        <f t="shared" si="2"/>
         <v>2569824671.9131589</v>
       </c>
       <c r="I81" s="1">
@@ -48077,7 +48077,7 @@
         <v>-0.12905661563830942</v>
       </c>
       <c r="H82" s="16">
-        <f>I82/F82</f>
+        <f t="shared" si="2"/>
         <v>25726993838.43251</v>
       </c>
       <c r="I82" s="1">
@@ -48161,7 +48161,7 @@
         <v>-0.13612003676852089</v>
       </c>
       <c r="H83" s="16">
-        <f>I83/F83</f>
+        <f t="shared" si="2"/>
         <v>25726993838.43251</v>
       </c>
       <c r="I83" s="1">
@@ -48245,7 +48245,7 @@
         <v>-0.18743762751360907</v>
       </c>
       <c r="H84" s="16">
-        <f>I84/F84</f>
+        <f t="shared" si="2"/>
         <v>17595541293.729324</v>
       </c>
       <c r="I84" s="1">
@@ -48329,7 +48329,7 @@
         <v>-0.3611562573019681</v>
       </c>
       <c r="H85" s="16">
-        <f>I85/F85</f>
+        <f t="shared" si="2"/>
         <v>10769600000</v>
       </c>
       <c r="I85" s="1">
@@ -48413,7 +48413,7 @@
         <v>-6.3138386453048492E-2</v>
       </c>
       <c r="H86" s="16">
-        <f>I86/F86</f>
+        <f t="shared" si="2"/>
         <v>13084704000</v>
       </c>
       <c r="I86" s="1">
@@ -48497,7 +48497,7 @@
         <v>-0.11492976936607371</v>
       </c>
       <c r="H87" s="16">
-        <f>I87/F87</f>
+        <f t="shared" si="2"/>
         <v>52484638000.000008</v>
       </c>
       <c r="I87" s="1">
@@ -48581,7 +48581,7 @@
         <v>-0.16297160142092007</v>
       </c>
       <c r="H88" s="16">
-        <f>I88/F88</f>
+        <f t="shared" si="2"/>
         <v>19240132000</v>
       </c>
       <c r="I88" s="1">
@@ -48665,7 +48665,7 @@
         <v>-0.3763894122826329</v>
       </c>
       <c r="H89" s="16">
-        <f>I89/F89</f>
+        <f t="shared" si="2"/>
         <v>6582921000</v>
       </c>
       <c r="I89" s="1">
@@ -48749,7 +48749,7 @@
         <v>-0.16054845572101917</v>
       </c>
       <c r="H90" s="16">
-        <f>I90/F90</f>
+        <f t="shared" si="2"/>
         <v>9890572000</v>
       </c>
       <c r="I90" s="1">
@@ -48833,7 +48833,7 @@
         <v>-2.3094714188923691</v>
       </c>
       <c r="H91" s="16">
-        <f>I91/F91</f>
+        <f t="shared" si="2"/>
         <v>4837699000</v>
       </c>
       <c r="I91" s="1">
@@ -48917,7 +48917,7 @@
         <v>-0.54146660526452384</v>
       </c>
       <c r="H92" s="16">
-        <f>I92/F92</f>
+        <f t="shared" si="2"/>
         <v>2423979000</v>
       </c>
       <c r="I92" s="1">
@@ -49001,7 +49001,7 @@
         <v>-0.12419412149582676</v>
       </c>
       <c r="H93" s="16">
-        <f>I93/F93</f>
+        <f t="shared" si="2"/>
         <v>26871167000</v>
       </c>
       <c r="I93" s="1">
@@ -49085,7 +49085,7 @@
         <v>-0.10508373917264668</v>
       </c>
       <c r="H94" s="16">
-        <f>I94/F94</f>
+        <f t="shared" si="2"/>
         <v>26871167000</v>
       </c>
       <c r="I94" s="1">
@@ -49169,7 +49169,7 @@
         <v>-0.19221542586222237</v>
       </c>
       <c r="H95" s="16">
-        <f>I95/F95</f>
+        <f t="shared" si="2"/>
         <v>17879419000</v>
       </c>
       <c r="I95" s="1">
@@ -49253,7 +49253,7 @@
         <v>-0.46522794396567363</v>
       </c>
       <c r="H96" s="16">
-        <f>I96/F96</f>
+        <f t="shared" si="2"/>
         <v>10579400000</v>
       </c>
       <c r="I96" s="1">
@@ -49322,71 +49322,71 @@
       </c>
       <c r="I97" s="12"/>
       <c r="J97" s="12">
-        <f>(SUM(J2:J96))</f>
+        <f t="shared" ref="J97:Z97" si="3">(SUM(J2:J96))</f>
         <v>-16724046851.713987</v>
       </c>
       <c r="K97" s="12">
-        <f>(SUM(K2:K96))</f>
+        <f t="shared" si="3"/>
         <v>-10478818348.297964</v>
       </c>
       <c r="L97" s="12">
-        <f>(SUM(L2:L96))</f>
+        <f t="shared" si="3"/>
         <v>-10468636054.102352</v>
       </c>
       <c r="M97" s="12">
-        <f>(SUM(M2:M96))</f>
+        <f t="shared" si="3"/>
         <v>-124998143.9669202</v>
       </c>
       <c r="N97" s="12">
-        <f>(SUM(N2:N96))</f>
+        <f t="shared" si="3"/>
         <v>-125026494.73322248</v>
       </c>
       <c r="O97" s="12">
-        <f>(SUM(O2:O96))</f>
+        <f t="shared" si="3"/>
         <v>-1699847168.8520744</v>
       </c>
       <c r="P97" s="12">
-        <f>(SUM(P2:P96))</f>
+        <f t="shared" si="3"/>
         <v>1346936647.1534202</v>
       </c>
       <c r="Q97" s="12">
-        <f>(SUM(Q2:Q96))</f>
+        <f t="shared" si="3"/>
         <v>-1226511.3249630805</v>
       </c>
       <c r="R97" s="12">
-        <f>(SUM(R2:R96))</f>
+        <f t="shared" si="3"/>
         <v>-7457787538.3058596</v>
       </c>
       <c r="S97" s="12">
-        <f>(SUM(S2:S96))</f>
+        <f t="shared" si="3"/>
         <v>-12290489.343701761</v>
       </c>
       <c r="T97" s="12">
-        <f>(SUM(T2:T96))</f>
+        <f t="shared" si="3"/>
         <v>-103492.14337628083</v>
       </c>
       <c r="U97" s="12">
-        <f>(SUM(U2:U96))</f>
+        <f t="shared" si="3"/>
         <v>-21948.814070896322</v>
       </c>
       <c r="V97" s="12">
-        <f>(SUM(V2:V96))</f>
+        <f t="shared" si="3"/>
         <v>-4750571.9687265418</v>
       </c>
       <c r="W97" s="12">
-        <f>(SUM(W2:W96))</f>
+        <f t="shared" si="3"/>
         <v>-123355.34478203181</v>
       </c>
       <c r="X97" s="12">
-        <f>(SUM(X2:X96))</f>
+        <f t="shared" si="3"/>
         <v>1382828.5170562777</v>
       </c>
       <c r="Y97" s="12">
-        <f>(SUM(Y2:Y96))</f>
+        <f t="shared" si="3"/>
         <v>1104699.8920492569</v>
       </c>
       <c r="Z97" s="12">
-        <f>(SUM(Z2:Z96))</f>
+        <f t="shared" si="3"/>
         <v>-1566867.8696097059</v>
       </c>
       <c r="AA97" s="12">
@@ -49454,71 +49454,71 @@
     <row r="99" spans="2:27" x14ac:dyDescent="0.3">
       <c r="H99" s="16"/>
       <c r="J99" s="11">
-        <f>J97/$H$97*-1</f>
+        <f t="shared" ref="J99:Z99" si="4">J97/$H$97*-1</f>
         <v>1.0784274235583067E-2</v>
       </c>
       <c r="K99" s="11">
-        <f>K97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>6.7571235440137042E-3</v>
       </c>
       <c r="L99" s="11">
-        <f>L97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>6.7505576300380676E-3</v>
       </c>
       <c r="M99" s="11">
-        <f>M97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>8.0603353687687577E-5</v>
       </c>
       <c r="N99" s="11">
-        <f>N97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>8.0621635293886344E-5</v>
       </c>
       <c r="O99" s="11">
-        <f>O97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>1.0961233360573552E-3</v>
       </c>
       <c r="P99" s="11">
-        <f>P97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>-8.6855378423976253E-4</v>
       </c>
       <c r="Q99" s="11">
-        <f>Q97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>7.908991525035466E-7</v>
       </c>
       <c r="R99" s="11">
-        <f>R97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>4.8090528995116807E-3</v>
       </c>
       <c r="S99" s="11">
-        <f>S97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>7.9253549542889003E-6</v>
       </c>
       <c r="T99" s="11">
-        <f>T97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>6.6735501598030406E-8</v>
       </c>
       <c r="U99" s="11">
-        <f>U97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>1.4153394341998724E-8</v>
       </c>
       <c r="V99" s="11">
-        <f>V97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>3.0633417462215639E-6</v>
       </c>
       <c r="W99" s="11">
-        <f>W97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>7.9544016968476408E-8</v>
       </c>
       <c r="X99" s="11">
-        <f>X97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>-8.9169816856804591E-7</v>
       </c>
       <c r="Y99" s="11">
-        <f>Y97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>-7.1235070611257212E-7</v>
       </c>
       <c r="Z99" s="11">
-        <f>Z97/$H$97*-1</f>
+        <f t="shared" si="4"/>
         <v>1.0103734429004611E-6</v>
       </c>
       <c r="AA99" s="11"/>
@@ -49566,11 +49566,11 @@
         <v>2011</v>
       </c>
       <c r="C106" s="11">
-        <f t="shared" ref="C106:D114" si="0">F106*-1</f>
+        <f t="shared" ref="C106:D114" si="5">F106*-1</f>
         <v>3.1757076661633798E-2</v>
       </c>
       <c r="D106" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.884248795161669E-2</v>
       </c>
       <c r="E106">
@@ -49590,11 +49590,11 @@
         <v>2012</v>
       </c>
       <c r="C107" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.9758755223021599E-2</v>
       </c>
       <c r="D107" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.5842760012037324E-2</v>
       </c>
       <c r="E107">
@@ -49614,11 +49614,11 @@
         <v>2013</v>
       </c>
       <c r="C108" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.9342180225268459E-2</v>
       </c>
       <c r="D108" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.9152107289550424E-2</v>
       </c>
       <c r="E108">
@@ -49638,11 +49638,11 @@
         <v>2014</v>
       </c>
       <c r="C109" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.714187948442192E-2</v>
       </c>
       <c r="D109" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.6237658612446981E-2</v>
       </c>
       <c r="E109">
@@ -49662,11 +49662,11 @@
         <v>2015</v>
       </c>
       <c r="C110" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.7049461799294357E-2</v>
       </c>
       <c r="D110" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.8418435964608401E-2</v>
       </c>
       <c r="E110">
@@ -49686,11 +49686,11 @@
         <v>2016</v>
       </c>
       <c r="C111" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.0863663777670881E-2</v>
       </c>
       <c r="D111" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.3814801409782281E-2</v>
       </c>
       <c r="E111">
@@ -49710,11 +49710,11 @@
         <v>2017</v>
       </c>
       <c r="C112" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.8704632674745554E-2</v>
       </c>
       <c r="D112" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.381103283206339E-2</v>
       </c>
       <c r="E112">
@@ -49734,11 +49734,11 @@
         <v>2018</v>
       </c>
       <c r="C113" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.1467142448845494E-2</v>
       </c>
       <c r="D113" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.4480543352151465E-2</v>
       </c>
       <c r="E113">
@@ -49758,11 +49758,11 @@
         <v>2019</v>
       </c>
       <c r="C114" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.5814747113236166E-2</v>
       </c>
       <c r="D114" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.5962333964923375E-2</v>
       </c>
       <c r="E114">
@@ -49795,15 +49795,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002645C3B902415B4A832A38E2D536BCBF" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f46c813ed8eba6d99d2d6607137ae0a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53749597-08b2-480a-9987-8dc99663f934" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a6305a350d626ca94428547b882ca6a" ns2:_="">
     <xsd:import namespace="53749597-08b2-480a-9987-8dc99663f934"/>
@@ -49973,6 +49964,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBAFBAF-5AA5-4A09-9766-5B2E6A7C7A49}">
   <ds:schemaRefs>
@@ -49983,14 +49983,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28544A90-A9E1-4D3E-9A7C-46C02AE71BE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610FB421-9E96-4F73-97F1-36D9CECE9EF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50006,4 +49998,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28544A90-A9E1-4D3E-9A7C-46C02AE71BE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>